--- a/Data.xlsx
+++ b/Data.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:E366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
       <c r="B1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">2023/08/10
-12:00 AM Eastern Time (ET)
+12:01 AM Eastern Time (ET)
 </t>
         </is>
       </c>
@@ -768,13 +768,13 @@
         </is>
       </c>
       <c r="C16" s="6" t="n">
-        <v>32371.5</v>
+        <v>32369.97</v>
       </c>
       <c r="D16" s="7" t="n">
-        <v>167.17</v>
+        <v>165.64</v>
       </c>
       <c r="E16" s="8" t="n">
-        <v>0.0052</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -825,13 +825,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>65792.35000000001</v>
+        <v>65780.08</v>
       </c>
       <c r="D19" s="7" t="n">
-        <v>-203.46</v>
+        <v>-215.73</v>
       </c>
       <c r="E19" s="8" t="n">
-        <v>-0.0031</v>
+        <v>-0.0033</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>19571.2</v>
+        <v>19576.75</v>
       </c>
       <c r="D20" s="7" t="n">
-        <v>-61.35</v>
+        <v>-55.8</v>
       </c>
       <c r="E20" s="8" t="n">
-        <v>-0.0031</v>
+        <v>-0.0028</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>4609.51</v>
+        <v>4609.96</v>
       </c>
       <c r="D21" s="7" t="n">
-        <v>-12.45</v>
+        <v>-12</v>
       </c>
       <c r="E21" s="8" t="n">
-        <v>-0.0027</v>
+        <v>-0.0026</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -3890,7 +3890,3425 @@
       <c r="D183" s="9" t="n"/>
       <c r="E183" s="9" t="n"/>
     </row>
-    <row r="184"/>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2023/08/10
+12:00 AM Eastern Time (ET)
+</t>
+        </is>
+      </c>
+      <c r="C184" s="3" t="n"/>
+      <c r="D184" s="3" t="n"/>
+      <c r="E184" s="3" t="n"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B185" s="1" t="inlineStr">
+        <is>
+          <t>Market Index</t>
+        </is>
+      </c>
+      <c r="C185" s="1" t="n"/>
+      <c r="D185" s="1" t="n"/>
+      <c r="E185" s="1" t="n"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="4" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
+      <c r="B186" s="4" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="C186" s="4" t="inlineStr">
+        <is>
+          <t>Price (USD)</t>
+        </is>
+      </c>
+      <c r="D186" s="4" t="inlineStr">
+        <is>
+          <t>Change ($)</t>
+        </is>
+      </c>
+      <c r="E186" s="4" t="inlineStr">
+        <is>
+          <t>Change (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B187" s="3" t="inlineStr">
+        <is>
+          <t>S&amp;P500</t>
+        </is>
+      </c>
+      <c r="C187" s="6" t="n">
+        <v>4467.71</v>
+      </c>
+      <c r="D187" s="7" t="n">
+        <v>-31.67</v>
+      </c>
+      <c r="E187" s="8" t="n">
+        <v>-0.006999999999999999</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B188" s="3" t="inlineStr">
+        <is>
+          <t>DowJonesIndustrialAverage</t>
+        </is>
+      </c>
+      <c r="C188" s="6" t="n">
+        <v>35123.36</v>
+      </c>
+      <c r="D188" s="7" t="n">
+        <v>-191.13</v>
+      </c>
+      <c r="E188" s="8" t="n">
+        <v>-0.0054</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B189" s="3" t="inlineStr">
+        <is>
+          <t>NasdaqComposite</t>
+        </is>
+      </c>
+      <c r="C189" s="6" t="n">
+        <v>13722.02</v>
+      </c>
+      <c r="D189" s="7" t="n">
+        <v>-162.31</v>
+      </c>
+      <c r="E189" s="8" t="n">
+        <v>-0.0117</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B190" s="3" t="inlineStr">
+        <is>
+          <t>Russell2000Index</t>
+        </is>
+      </c>
+      <c r="C190" s="6" t="n">
+        <v>1930.77</v>
+      </c>
+      <c r="D190" s="7" t="n">
+        <v>-16.65</v>
+      </c>
+      <c r="E190" s="8" t="n">
+        <v>-0.0086</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B191" s="3" t="inlineStr">
+        <is>
+          <t>S&amp;P/TSXCompositeIndex</t>
+        </is>
+      </c>
+      <c r="C191" s="6" t="n">
+        <v>20275.27</v>
+      </c>
+      <c r="D191" s="7" t="n">
+        <v>69.29000000000001</v>
+      </c>
+      <c r="E191" s="8" t="n">
+        <v>0.0034</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B192" s="3" t="inlineStr">
+        <is>
+          <t>IBOVESPA</t>
+        </is>
+      </c>
+      <c r="C192" s="6" t="n">
+        <v>118408.77</v>
+      </c>
+      <c r="D192" s="7" t="n">
+        <v>-681.47</v>
+      </c>
+      <c r="E192" s="8" t="n">
+        <v>-0.005699999999999999</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B193" s="3" t="inlineStr">
+        <is>
+          <t>DAXPERFORMANCE-INDEX</t>
+        </is>
+      </c>
+      <c r="C193" s="6" t="n">
+        <v>15852.58</v>
+      </c>
+      <c r="D193" s="7" t="n">
+        <v>77.65000000000001</v>
+      </c>
+      <c r="E193" s="8" t="n">
+        <v>0.0049</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B194" s="3" t="inlineStr">
+        <is>
+          <t>FTSE100Index</t>
+        </is>
+      </c>
+      <c r="C194" s="6" t="n">
+        <v>7587.3</v>
+      </c>
+      <c r="D194" s="7" t="n">
+        <v>59.88</v>
+      </c>
+      <c r="E194" s="8" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B195" s="3" t="inlineStr">
+        <is>
+          <t>CAC40</t>
+        </is>
+      </c>
+      <c r="C195" s="6" t="n">
+        <v>7322.04</v>
+      </c>
+      <c r="D195" s="7" t="n">
+        <v>52.57</v>
+      </c>
+      <c r="E195" s="8" t="n">
+        <v>0.0072</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B196" s="3" t="inlineStr">
+        <is>
+          <t>IBEX35</t>
+        </is>
+      </c>
+      <c r="C196" s="6" t="n">
+        <v>9354.4</v>
+      </c>
+      <c r="D196" s="7" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="E196" s="8" t="n">
+        <v>0.005699999999999999</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B197" s="3" t="inlineStr">
+        <is>
+          <t>EUROSTOXX50</t>
+        </is>
+      </c>
+      <c r="C197" s="6" t="n">
+        <v>4317.33</v>
+      </c>
+      <c r="D197" s="7" t="n">
+        <v>28.48</v>
+      </c>
+      <c r="E197" s="8" t="n">
+        <v>0.0066</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B198" s="3" t="inlineStr">
+        <is>
+          <t>S&amp;PEURO</t>
+        </is>
+      </c>
+      <c r="C198" s="6" t="n">
+        <v>1909.1</v>
+      </c>
+      <c r="D198" s="7" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="E198" s="8" t="n">
+        <v>0.0058</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B199" s="3" t="inlineStr">
+        <is>
+          <t>Nikkei225</t>
+        </is>
+      </c>
+      <c r="C199" s="6" t="n">
+        <v>32371.5</v>
+      </c>
+      <c r="D199" s="7" t="n">
+        <v>167.17</v>
+      </c>
+      <c r="E199" s="8" t="n">
+        <v>0.0052</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B200" s="3" t="inlineStr">
+        <is>
+          <t>SSECompositeIndex</t>
+        </is>
+      </c>
+      <c r="C200" s="6" t="n">
+        <v>3235.9</v>
+      </c>
+      <c r="D200" s="7" t="n">
+        <v>-8.59</v>
+      </c>
+      <c r="E200" s="8" t="n">
+        <v>-0.0026</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B201" s="3" t="inlineStr">
+        <is>
+          <t>HangSengIndex</t>
+        </is>
+      </c>
+      <c r="C201" s="6" t="n">
+        <v>19062.45</v>
+      </c>
+      <c r="D201" s="7" t="n">
+        <v>-183.58</v>
+      </c>
+      <c r="E201" s="8" t="n">
+        <v>-0.0095</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B202" s="3" t="inlineStr">
+        <is>
+          <t>BSESENSEX</t>
+        </is>
+      </c>
+      <c r="C202" s="6" t="n">
+        <v>65792.35000000001</v>
+      </c>
+      <c r="D202" s="7" t="n">
+        <v>-203.46</v>
+      </c>
+      <c r="E202" s="8" t="n">
+        <v>-0.0031</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B203" s="3" t="inlineStr">
+        <is>
+          <t>NIFTY50</t>
+        </is>
+      </c>
+      <c r="C203" s="6" t="n">
+        <v>19571.2</v>
+      </c>
+      <c r="D203" s="7" t="n">
+        <v>-61.35</v>
+      </c>
+      <c r="E203" s="8" t="n">
+        <v>-0.0031</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" s="3" t="inlineStr">
+        <is>
+          <t>S&amp;PAsia50</t>
+        </is>
+      </c>
+      <c r="C204" s="6" t="n">
+        <v>4609.51</v>
+      </c>
+      <c r="D204" s="7" t="n">
+        <v>-12.45</v>
+      </c>
+      <c r="E204" s="8" t="n">
+        <v>-0.0027</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="3" t="n"/>
+      <c r="B205" s="3" t="n"/>
+      <c r="C205" s="3" t="n"/>
+      <c r="D205" s="3" t="n"/>
+      <c r="E205" s="3" t="n"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B206" s="1" t="inlineStr">
+        <is>
+          <t>Most Active</t>
+        </is>
+      </c>
+      <c r="C206" s="1" t="n"/>
+      <c r="D206" s="1" t="n"/>
+      <c r="E206" s="1" t="n"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="4" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
+      <c r="B207" s="4" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="C207" s="4" t="inlineStr">
+        <is>
+          <t>Price (USD)</t>
+        </is>
+      </c>
+      <c r="D207" s="4" t="inlineStr">
+        <is>
+          <t>Change ($)</t>
+        </is>
+      </c>
+      <c r="E207" s="4" t="inlineStr">
+        <is>
+          <t>Change (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B208" s="3" t="inlineStr">
+        <is>
+          <t>SuncorEnergyInc</t>
+        </is>
+      </c>
+      <c r="C208" s="6" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="D208" s="7" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E208" s="8" t="n">
+        <v>0.0208</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B209" s="3" t="inlineStr">
+        <is>
+          <t>CanopyGrowthCorp</t>
+        </is>
+      </c>
+      <c r="C209" s="6" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D209" s="7" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="E209" s="8" t="n">
+        <v>-0.0317</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B210" s="3" t="inlineStr">
+        <is>
+          <t>B2GoldCorp</t>
+        </is>
+      </c>
+      <c r="C210" s="6" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="D210" s="7" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="E210" s="8" t="n">
+        <v>-0.0286</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B211" s="3" t="inlineStr">
+        <is>
+          <t>BaytexEnergyCorp</t>
+        </is>
+      </c>
+      <c r="C211" s="6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D211" s="7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E211" s="8" t="n">
+        <v>0.0275</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B212" s="3" t="inlineStr">
+        <is>
+          <t>CenovusEnergyInc</t>
+        </is>
+      </c>
+      <c r="C212" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D212" s="7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E212" s="8" t="n">
+        <v>0.0066</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B213" s="3" t="inlineStr">
+        <is>
+          <t>CrescentPointEnergyCorp</t>
+        </is>
+      </c>
+      <c r="C213" s="6" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="D213" s="7" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E213" s="8" t="n">
+        <v>0.0244</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B214" s="3" t="inlineStr">
+        <is>
+          <t>ManulifeFinancialCorp</t>
+        </is>
+      </c>
+      <c r="C214" s="6" t="n">
+        <v>25.87</v>
+      </c>
+      <c r="D214" s="7" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="E214" s="8" t="n">
+        <v>-0.0073</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B215" s="3" t="inlineStr">
+        <is>
+          <t>TourmalineOilCorp</t>
+        </is>
+      </c>
+      <c r="C215" s="6" t="n">
+        <v>70.45</v>
+      </c>
+      <c r="D215" s="7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E215" s="8" t="n">
+        <v>0.0181</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B216" s="3" t="inlineStr">
+        <is>
+          <t>CanadianNaturalResourcesLtd</t>
+        </is>
+      </c>
+      <c r="C216" s="6" t="n">
+        <v>82.31</v>
+      </c>
+      <c r="D216" s="7" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E216" s="8" t="n">
+        <v>0.0066</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B217" s="3" t="inlineStr">
+        <is>
+          <t>AthabascaOilCorp</t>
+        </is>
+      </c>
+      <c r="C217" s="6" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="D217" s="7" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="E217" s="8" t="n">
+        <v>-0.008</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B218" s="3" t="inlineStr">
+        <is>
+          <t>TilrayBrandsInc</t>
+        </is>
+      </c>
+      <c r="C218" s="6" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="D218" s="7" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="E218" s="8" t="n">
+        <v>-0.0542</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B219" s="3" t="inlineStr">
+        <is>
+          <t>EnbridgeInc</t>
+        </is>
+      </c>
+      <c r="C219" s="6" t="n">
+        <v>48.97</v>
+      </c>
+      <c r="D219" s="7" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E219" s="8" t="n">
+        <v>0.0141</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B220" s="3" t="inlineStr">
+        <is>
+          <t>WhitecapResourcesInc</t>
+        </is>
+      </c>
+      <c r="C220" s="6" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="D220" s="7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E220" s="8" t="n">
+        <v>0.0146</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B221" s="3" t="inlineStr">
+        <is>
+          <t>ARCResourcesLtd</t>
+        </is>
+      </c>
+      <c r="C221" s="6" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="D221" s="7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E221" s="8" t="n">
+        <v>0.0172</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B222" s="3" t="inlineStr">
+        <is>
+          <t>NuveiCorp</t>
+        </is>
+      </c>
+      <c r="C222" s="6" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D222" s="7" t="n">
+        <v>-15.82</v>
+      </c>
+      <c r="E222" s="8" t="n">
+        <v>-0.3943</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B223" s="3" t="inlineStr">
+        <is>
+          <t>Hut8MiningCorp</t>
+        </is>
+      </c>
+      <c r="C223" s="6" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D223" s="7" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="E223" s="8" t="n">
+        <v>-0.0683</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B224" s="3" t="inlineStr">
+        <is>
+          <t>KinrossGoldCorporation</t>
+        </is>
+      </c>
+      <c r="C224" s="6" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="D224" s="7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E224" s="8" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B225" s="3" t="inlineStr">
+        <is>
+          <t>ShopifyInc</t>
+        </is>
+      </c>
+      <c r="C225" s="6" t="n">
+        <v>74.11</v>
+      </c>
+      <c r="D225" s="7" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="E225" s="8" t="n">
+        <v>-0.0162</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B226" s="3" t="inlineStr">
+        <is>
+          <t>TamarackValleyEnergyLtd</t>
+        </is>
+      </c>
+      <c r="C226" s="6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D226" s="7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E226" s="8" t="n">
+        <v>0.0188</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B227" s="3" t="inlineStr">
+        <is>
+          <t>AlgonquinPower&amp;UtilitiesCorp</t>
+        </is>
+      </c>
+      <c r="C227" s="6" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="D227" s="7" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E227" s="8" t="n">
+        <v>-0.00096</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B228" s="3" t="inlineStr">
+        <is>
+          <t>BrookfieldCorp</t>
+        </is>
+      </c>
+      <c r="C228" s="6" t="n">
+        <v>44.18</v>
+      </c>
+      <c r="D228" s="7" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="E228" s="8" t="n">
+        <v>-0.006500000000000001</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B229" s="3" t="inlineStr">
+        <is>
+          <t>TelusCorp</t>
+        </is>
+      </c>
+      <c r="C229" s="6" t="n">
+        <v>23.55</v>
+      </c>
+      <c r="D229" s="7" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E229" s="8" t="n">
+        <v>0.0248</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B230" s="3" t="inlineStr">
+        <is>
+          <t>HudbayMineralsInc</t>
+        </is>
+      </c>
+      <c r="C230" s="6" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="D230" s="7" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="E230" s="8" t="n">
+        <v>-0.012</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B231" s="3" t="inlineStr">
+        <is>
+          <t>ConvergeTechnologySolutionsCorp</t>
+        </is>
+      </c>
+      <c r="C231" s="6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D231" s="7" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="E231" s="8" t="n">
+        <v>-0.08810000000000001</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B232" s="3" t="inlineStr">
+        <is>
+          <t>IvanhoeMinesLtd</t>
+        </is>
+      </c>
+      <c r="C232" s="6" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="D232" s="7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E232" s="8" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B233" s="3" t="inlineStr">
+        <is>
+          <t>Toronto-DominionBank</t>
+        </is>
+      </c>
+      <c r="C233" s="6" t="n">
+        <v>85.25</v>
+      </c>
+      <c r="D233" s="7" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="E233" s="8" t="n">
+        <v>-0.002</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="B234" s="3" t="inlineStr">
+        <is>
+          <t>VermilionEnergyInc</t>
+        </is>
+      </c>
+      <c r="C234" s="6" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="D234" s="7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E234" s="8" t="n">
+        <v>0.0594</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B235" s="3" t="inlineStr">
+        <is>
+          <t>TCPIPELINESLPCommonStock</t>
+        </is>
+      </c>
+      <c r="C235" s="6" t="n">
+        <v>48.91</v>
+      </c>
+      <c r="D235" s="7" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E235" s="8" t="n">
+        <v>0.0076</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B236" s="3" t="inlineStr">
+        <is>
+          <t>CanadianImperialBankofCommerce</t>
+        </is>
+      </c>
+      <c r="C236" s="6" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="D236" s="7" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="E236" s="8" t="n">
+        <v>-0.0106</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B237" s="3" t="inlineStr">
+        <is>
+          <t>SunLifeFinancialInc</t>
+        </is>
+      </c>
+      <c r="C237" s="6" t="n">
+        <v>68.27</v>
+      </c>
+      <c r="D237" s="7" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E237" s="8" t="n">
+        <v>-0.0036</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B238" s="3" t="inlineStr">
+        <is>
+          <t>PowerCorporationofCanada</t>
+        </is>
+      </c>
+      <c r="C238" s="6" t="n">
+        <v>38.11</v>
+      </c>
+      <c r="D238" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E238" s="8" t="n">
+        <v>0.0053</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="B239" s="3" t="inlineStr">
+        <is>
+          <t>LundinMiningCorp</t>
+        </is>
+      </c>
+      <c r="C239" s="6" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="D239" s="7" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="E239" s="8" t="n">
+        <v>-0.0158</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="B240" s="3" t="inlineStr">
+        <is>
+          <t>RoyalBankofCanada</t>
+        </is>
+      </c>
+      <c r="C240" s="6" t="n">
+        <v>127.48</v>
+      </c>
+      <c r="D240" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E240" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B241" s="3" t="inlineStr">
+        <is>
+          <t>AirCanada</t>
+        </is>
+      </c>
+      <c r="C241" s="6" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="D241" s="7" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="E241" s="8" t="n">
+        <v>-0.016</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B242" s="3" t="inlineStr">
+        <is>
+          <t>BankofNovaScotia</t>
+        </is>
+      </c>
+      <c r="C242" s="6" t="n">
+        <v>63.84</v>
+      </c>
+      <c r="D242" s="7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E242" s="8" t="n">
+        <v>0.00047</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="B243" s="3" t="inlineStr">
+        <is>
+          <t>BitfarmsLtd</t>
+        </is>
+      </c>
+      <c r="C243" s="6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="D243" s="7" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E243" s="8" t="n">
+        <v>-0.0727</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="B244" s="3" t="inlineStr">
+        <is>
+          <t>Great-WestLifecoInc</t>
+        </is>
+      </c>
+      <c r="C244" s="6" t="n">
+        <v>40.27</v>
+      </c>
+      <c r="D244" s="7" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="E244" s="8" t="n">
+        <v>-0.0044</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="B245" s="3" t="inlineStr">
+        <is>
+          <t>BirchcliffEnergyLtd</t>
+        </is>
+      </c>
+      <c r="C245" s="6" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="D245" s="7" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E245" s="8" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="B246" s="3" t="inlineStr">
+        <is>
+          <t>WELLHealthTechnologiesCorp</t>
+        </is>
+      </c>
+      <c r="C246" s="6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D246" s="7" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="E246" s="8" t="n">
+        <v>-0.0308</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="B247" s="3" t="inlineStr">
+        <is>
+          <t>BarrickGoldCorp</t>
+        </is>
+      </c>
+      <c r="C247" s="6" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="D247" s="7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E247" s="8" t="n">
+        <v>0.004099999999999999</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="B248" s="3" t="inlineStr">
+        <is>
+          <t>ECNCapitalCorp</t>
+        </is>
+      </c>
+      <c r="C248" s="6" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="D248" s="7" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="E248" s="8" t="n">
+        <v>-0.0496</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B249" s="3" t="inlineStr">
+        <is>
+          <t>MEGEnergyCorp</t>
+        </is>
+      </c>
+      <c r="C249" s="6" t="n">
+        <v>24.15</v>
+      </c>
+      <c r="D249" s="7" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="E249" s="8" t="n">
+        <v>-0.0049</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="B250" s="3" t="inlineStr">
+        <is>
+          <t>BankofMontreal</t>
+        </is>
+      </c>
+      <c r="C250" s="6" t="n">
+        <v>118.46</v>
+      </c>
+      <c r="D250" s="7" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E250" s="8" t="n">
+        <v>0.0019</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="B251" s="3" t="inlineStr">
+        <is>
+          <t>PembinaPipelineCorp</t>
+        </is>
+      </c>
+      <c r="C251" s="6" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="D251" s="7" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E251" s="8" t="n">
+        <v>0.0126</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B252" s="3" t="inlineStr">
+        <is>
+          <t>CaeInc</t>
+        </is>
+      </c>
+      <c r="C252" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="D252" s="7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E252" s="8" t="n">
+        <v>0.08039999999999999</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="B253" s="3" t="inlineStr">
+        <is>
+          <t>BCEInc</t>
+        </is>
+      </c>
+      <c r="C253" s="6" t="n">
+        <v>56.65</v>
+      </c>
+      <c r="D253" s="7" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E253" s="8" t="n">
+        <v>0.0103</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="B254" s="3" t="inlineStr">
+        <is>
+          <t>ElementFleetManagementCorp</t>
+        </is>
+      </c>
+      <c r="C254" s="6" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="D254" s="7" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="E254" s="8" t="n">
+        <v>-0.0363</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="B255" s="3" t="inlineStr">
+        <is>
+          <t>SuperiorPlusCorp</t>
+        </is>
+      </c>
+      <c r="C255" s="6" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="D255" s="7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E255" s="8" t="n">
+        <v>0.0336</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="B256" s="3" t="inlineStr">
+        <is>
+          <t>GlobalAtomicCorp</t>
+        </is>
+      </c>
+      <c r="C256" s="6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="D256" s="7" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="E256" s="8" t="n">
+        <v>-0.09029999999999999</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B257" s="3" t="inlineStr">
+        <is>
+          <t>TriconResidentialInc</t>
+        </is>
+      </c>
+      <c r="C257" s="6" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="D257" s="7" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="E257" s="8" t="n">
+        <v>-0.0325</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="3" t="n"/>
+      <c r="B258" s="3" t="n"/>
+      <c r="C258" s="3" t="n"/>
+      <c r="D258" s="3" t="n"/>
+      <c r="E258" s="3" t="n"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B259" s="1" t="inlineStr">
+        <is>
+          <t>Most Gainers</t>
+        </is>
+      </c>
+      <c r="C259" s="1" t="n"/>
+      <c r="D259" s="1" t="n"/>
+      <c r="E259" s="1" t="n"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="4" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
+      <c r="B260" s="4" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="C260" s="4" t="inlineStr">
+        <is>
+          <t>Price (USD)</t>
+        </is>
+      </c>
+      <c r="D260" s="4" t="inlineStr">
+        <is>
+          <t>Change ($)</t>
+        </is>
+      </c>
+      <c r="E260" s="4" t="inlineStr">
+        <is>
+          <t>Change (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B261" s="3" t="inlineStr">
+        <is>
+          <t>SilverElephantMiningCorp</t>
+        </is>
+      </c>
+      <c r="C261" s="6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D261" s="7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E261" s="8" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B262" s="3" t="inlineStr">
+        <is>
+          <t>RealBrokerageInc</t>
+        </is>
+      </c>
+      <c r="C262" s="6" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="D262" s="7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E262" s="8" t="n">
+        <v>0.1596</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B263" s="3" t="inlineStr">
+        <is>
+          <t>BBTVHoldingsInc</t>
+        </is>
+      </c>
+      <c r="C263" s="6" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D263" s="7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E263" s="8" t="n">
+        <v>0.1379</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B264" s="3" t="inlineStr">
+        <is>
+          <t>SullidenMineralsSA</t>
+        </is>
+      </c>
+      <c r="C264" s="6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D264" s="7" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E264" s="8" t="n">
+        <v>0.1111</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B265" s="3" t="inlineStr">
+        <is>
+          <t>AxisAutoFinanceInc</t>
+        </is>
+      </c>
+      <c r="C265" s="6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D265" s="7" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E265" s="8" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B266" s="3" t="inlineStr">
+        <is>
+          <t>QuesterreEnergyCorp(Canada)</t>
+        </is>
+      </c>
+      <c r="C266" s="6" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D266" s="7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E266" s="8" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B267" s="3" t="inlineStr">
+        <is>
+          <t>OrvanaMineralsCorp</t>
+        </is>
+      </c>
+      <c r="C267" s="6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D267" s="7" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E267" s="8" t="n">
+        <v>0.09380000000000001</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B268" s="3" t="inlineStr">
+        <is>
+          <t>LucaraDiamondCorp</t>
+        </is>
+      </c>
+      <c r="C268" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D268" s="7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E268" s="8" t="n">
+        <v>0.08109999999999999</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B269" s="3" t="inlineStr">
+        <is>
+          <t>CaeInc</t>
+        </is>
+      </c>
+      <c r="C269" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="D269" s="7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="E269" s="8" t="n">
+        <v>0.08039999999999999</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B270" s="3" t="inlineStr">
+        <is>
+          <t>EupraxiaPharmaceuticalsInc</t>
+        </is>
+      </c>
+      <c r="C270" s="6" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="D270" s="7" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E270" s="8" t="n">
+        <v>0.0765</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B271" s="3" t="inlineStr">
+        <is>
+          <t>NovoResourcesCorp</t>
+        </is>
+      </c>
+      <c r="C271" s="6" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D271" s="7" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E271" s="8" t="n">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B272" s="3" t="inlineStr">
+        <is>
+          <t>MedipharmLabsCorp</t>
+        </is>
+      </c>
+      <c r="C272" s="6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D272" s="7" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E272" s="8" t="n">
+        <v>0.0667</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B273" s="3" t="inlineStr">
+        <is>
+          <t>SolitarioResourcesCorp</t>
+        </is>
+      </c>
+      <c r="C273" s="6" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D273" s="7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E273" s="8" t="n">
+        <v>0.0658</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B274" s="3" t="inlineStr">
+        <is>
+          <t>ATSCorp</t>
+        </is>
+      </c>
+      <c r="C274" s="6" t="n">
+        <v>59.66</v>
+      </c>
+      <c r="D274" s="7" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="E274" s="8" t="n">
+        <v>0.0654</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B275" s="3" t="inlineStr">
+        <is>
+          <t>MegaUraniumLtd</t>
+        </is>
+      </c>
+      <c r="C275" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D275" s="7" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E275" s="8" t="n">
+        <v>0.0638</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B276" s="3" t="inlineStr">
+        <is>
+          <t>Ur-EnergyInc.</t>
+        </is>
+      </c>
+      <c r="C276" s="6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D276" s="7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E276" s="8" t="n">
+        <v>0.0629</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B277" s="3" t="inlineStr">
+        <is>
+          <t>VermilionEnergyInc</t>
+        </is>
+      </c>
+      <c r="C277" s="6" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="D277" s="7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E277" s="8" t="n">
+        <v>0.0594</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B278" s="3" t="inlineStr">
+        <is>
+          <t>NevadaCopperCorp</t>
+        </is>
+      </c>
+      <c r="C278" s="6" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D278" s="7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E278" s="8" t="n">
+        <v>0.0571</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B279" s="3" t="inlineStr">
+        <is>
+          <t>PieridaeEnergyLtd</t>
+        </is>
+      </c>
+      <c r="C279" s="6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D279" s="7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E279" s="8" t="n">
+        <v>0.0563</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B280" s="3" t="inlineStr">
+        <is>
+          <t>QuarterhillInc</t>
+        </is>
+      </c>
+      <c r="C280" s="6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D280" s="7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E280" s="8" t="n">
+        <v>0.0552</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B281" s="3" t="inlineStr">
+        <is>
+          <t>TripleFlagPreciousMetalsCorp</t>
+        </is>
+      </c>
+      <c r="C281" s="6" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="D281" s="7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E281" s="8" t="n">
+        <v>0.0528</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B282" s="3" t="inlineStr">
+        <is>
+          <t>EnsignEnergyServicesInc</t>
+        </is>
+      </c>
+      <c r="C282" s="6" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D282" s="7" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E282" s="8" t="n">
+        <v>0.0498</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B283" s="3" t="inlineStr">
+        <is>
+          <t>Stella-JonesInc</t>
+        </is>
+      </c>
+      <c r="C283" s="6" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="D283" s="7" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="E283" s="8" t="n">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B284" s="3" t="inlineStr">
+        <is>
+          <t>FreegoldVenturesLtd</t>
+        </is>
+      </c>
+      <c r="C284" s="6" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D284" s="7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E284" s="8" t="n">
+        <v>0.0476</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B285" s="3" t="inlineStr">
+        <is>
+          <t>I3EnergyPLC</t>
+        </is>
+      </c>
+      <c r="C285" s="6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D285" s="7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E285" s="8" t="n">
+        <v>0.0444</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B286" s="3" t="inlineStr">
+        <is>
+          <t>EnthusiastGamingHoldingsInc</t>
+        </is>
+      </c>
+      <c r="C286" s="6" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D286" s="7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E286" s="8" t="n">
+        <v>0.0441</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="B287" s="3" t="inlineStr">
+        <is>
+          <t>EssentialEnergyServicesLtd</t>
+        </is>
+      </c>
+      <c r="C287" s="6" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D287" s="7" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E287" s="8" t="n">
+        <v>0.0435</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B288" s="3" t="inlineStr">
+        <is>
+          <t>PrairieProvidentResourcesInc</t>
+        </is>
+      </c>
+      <c r="C288" s="6" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D288" s="7" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E288" s="8" t="n">
+        <v>0.0435</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B289" s="3" t="inlineStr">
+        <is>
+          <t>GoodfoodMarketCorp</t>
+        </is>
+      </c>
+      <c r="C289" s="6" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D289" s="7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E289" s="8" t="n">
+        <v>0.0435</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B290" s="3" t="inlineStr">
+        <is>
+          <t>CoveoSolutionsInc</t>
+        </is>
+      </c>
+      <c r="C290" s="6" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="D290" s="7" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E290" s="8" t="n">
+        <v>0.0428</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B291" s="3" t="inlineStr">
+        <is>
+          <t>TreasuryMetalsInc</t>
+        </is>
+      </c>
+      <c r="C291" s="6" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D291" s="7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E291" s="8" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="B292" s="3" t="inlineStr">
+        <is>
+          <t>TRXGoldCorp</t>
+        </is>
+      </c>
+      <c r="C292" s="6" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D292" s="7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E292" s="8" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="B293" s="3" t="inlineStr">
+        <is>
+          <t>HammondManufacturingCompanyLtd</t>
+        </is>
+      </c>
+      <c r="C293" s="6" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="D293" s="7" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E293" s="8" t="n">
+        <v>0.0378</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B294" s="3" t="inlineStr">
+        <is>
+          <t>SylogistLtd</t>
+        </is>
+      </c>
+      <c r="C294" s="6" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="D294" s="7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E294" s="8" t="n">
+        <v>0.0373</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B295" s="3" t="inlineStr">
+        <is>
+          <t>GalianoGoldInc</t>
+        </is>
+      </c>
+      <c r="C295" s="6" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D295" s="7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E295" s="8" t="n">
+        <v>0.0361</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="B296" s="3" t="inlineStr">
+        <is>
+          <t>ValeuraEnergyInc.</t>
+        </is>
+      </c>
+      <c r="C296" s="6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D296" s="7" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E296" s="8" t="n">
+        <v>0.0352</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="B297" s="3" t="inlineStr">
+        <is>
+          <t>BirchcliffEnergyLtd</t>
+        </is>
+      </c>
+      <c r="C297" s="6" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="D297" s="7" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E297" s="8" t="n">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="B298" s="3" t="inlineStr">
+        <is>
+          <t>CESEnergySolutionsCorp</t>
+        </is>
+      </c>
+      <c r="C298" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D298" s="7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E298" s="8" t="n">
+        <v>0.0345</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="B299" s="3" t="inlineStr">
+        <is>
+          <t>SuperiorPlusCorp</t>
+        </is>
+      </c>
+      <c r="C299" s="6" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="D299" s="7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E299" s="8" t="n">
+        <v>0.0336</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="B300" s="3" t="inlineStr">
+        <is>
+          <t>SaturnOil&amp;GasInc</t>
+        </is>
+      </c>
+      <c r="C300" s="6" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="D300" s="7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E300" s="8" t="n">
+        <v>0.0333</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="B301" s="3" t="inlineStr">
+        <is>
+          <t>FissionUraniumCorp</t>
+        </is>
+      </c>
+      <c r="C301" s="6" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D301" s="7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E301" s="8" t="n">
+        <v>0.0328</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B302" s="3" t="inlineStr">
+        <is>
+          <t>GenesisLandDevelopmentCorp</t>
+        </is>
+      </c>
+      <c r="C302" s="6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="D302" s="7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E302" s="8" t="n">
+        <v>0.0326</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="B303" s="3" t="inlineStr">
+        <is>
+          <t>CrewEnergyInc</t>
+        </is>
+      </c>
+      <c r="C303" s="6" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="D303" s="7" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E303" s="8" t="n">
+        <v>0.0314</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="B304" s="3" t="inlineStr">
+        <is>
+          <t>TerraVestIndustriesInc</t>
+        </is>
+      </c>
+      <c r="C304" s="6" t="n">
+        <v>35.95</v>
+      </c>
+      <c r="D304" s="7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E304" s="8" t="n">
+        <v>0.0301</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B305" s="3" t="inlineStr">
+        <is>
+          <t>Q4Inc</t>
+        </is>
+      </c>
+      <c r="C305" s="6" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D305" s="7" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E305" s="8" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="B306" s="3" t="inlineStr">
+        <is>
+          <t>ForsysMetalsCorp</t>
+        </is>
+      </c>
+      <c r="C306" s="6" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D306" s="7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E306" s="8" t="n">
+        <v>0.0286</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="B307" s="3" t="inlineStr">
+        <is>
+          <t>PHXEnergyServicesCorp</t>
+        </is>
+      </c>
+      <c r="C307" s="6" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="D307" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E307" s="8" t="n">
+        <v>0.0277</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="B308" s="3" t="inlineStr">
+        <is>
+          <t>BaytexEnergyCorp</t>
+        </is>
+      </c>
+      <c r="C308" s="6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D308" s="7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E308" s="8" t="n">
+        <v>0.0275</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="B309" s="3" t="inlineStr">
+        <is>
+          <t>MeridianMiningUKSocietas</t>
+        </is>
+      </c>
+      <c r="C309" s="6" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D309" s="7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E309" s="8" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B310" s="3" t="inlineStr">
+        <is>
+          <t>ObsidianEnergyLtd</t>
+        </is>
+      </c>
+      <c r="C310" s="6" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="D310" s="7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E310" s="8" t="n">
+        <v>0.0266</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="3" t="n"/>
+      <c r="B311" s="3" t="n"/>
+      <c r="C311" s="3" t="n"/>
+      <c r="D311" s="3" t="n"/>
+      <c r="E311" s="3" t="n"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B312" s="1" t="inlineStr">
+        <is>
+          <t>Most Losers</t>
+        </is>
+      </c>
+      <c r="C312" s="1" t="n"/>
+      <c r="D312" s="1" t="n"/>
+      <c r="E312" s="1" t="n"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="4" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
+      <c r="B313" s="4" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="C313" s="4" t="inlineStr">
+        <is>
+          <t>Price (USD)</t>
+        </is>
+      </c>
+      <c r="D313" s="4" t="inlineStr">
+        <is>
+          <t>Change ($)</t>
+        </is>
+      </c>
+      <c r="E313" s="4" t="inlineStr">
+        <is>
+          <t>Change (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B314" s="3" t="inlineStr">
+        <is>
+          <t>NuveiCorp</t>
+        </is>
+      </c>
+      <c r="C314" s="6" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D314" s="7" t="n">
+        <v>-15.82</v>
+      </c>
+      <c r="E314" s="8" t="n">
+        <v>-0.3943</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B315" s="3" t="inlineStr">
+        <is>
+          <t>SilverBullResourcesInc</t>
+        </is>
+      </c>
+      <c r="C315" s="6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D315" s="7" t="n">
+        <v>-0.035</v>
+      </c>
+      <c r="E315" s="8" t="n">
+        <v>-0.2414</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B316" s="3" t="inlineStr">
+        <is>
+          <t>NXTEnergySolutionsInc.</t>
+        </is>
+      </c>
+      <c r="C316" s="6" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D316" s="7" t="n">
+        <v>-0.045</v>
+      </c>
+      <c r="E316" s="8" t="n">
+        <v>-0.1731</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B317" s="3" t="inlineStr">
+        <is>
+          <t>WestportFuelSystemsInc</t>
+        </is>
+      </c>
+      <c r="C317" s="6" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="D317" s="7" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="E317" s="8" t="n">
+        <v>-0.1319</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B318" s="3" t="inlineStr">
+        <is>
+          <t>Theratechnologies</t>
+        </is>
+      </c>
+      <c r="C318" s="6" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D318" s="7" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E318" s="8" t="n">
+        <v>-0.1298</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B319" s="3" t="inlineStr">
+        <is>
+          <t>GalaxyDigitalHoldingsLtd</t>
+        </is>
+      </c>
+      <c r="C319" s="6" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="D319" s="7" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="E319" s="8" t="n">
+        <v>-0.112</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B320" s="3" t="inlineStr">
+        <is>
+          <t>MedexusPharmaceuticalsInc</t>
+        </is>
+      </c>
+      <c r="C320" s="6" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="D320" s="7" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="E320" s="8" t="n">
+        <v>-0.09570000000000001</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B321" s="3" t="inlineStr">
+        <is>
+          <t>AvicannaInc</t>
+        </is>
+      </c>
+      <c r="C321" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D321" s="7" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="E321" s="8" t="n">
+        <v>-0.09089999999999999</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="B322" s="3" t="inlineStr">
+        <is>
+          <t>GlobalAtomicCorp</t>
+        </is>
+      </c>
+      <c r="C322" s="6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="D322" s="7" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="E322" s="8" t="n">
+        <v>-0.09029999999999999</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B323" s="3" t="inlineStr">
+        <is>
+          <t>AvantBrandsInc</t>
+        </is>
+      </c>
+      <c r="C323" s="6" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D323" s="7" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="E323" s="8" t="n">
+        <v>-0.08890000000000001</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B324" s="3" t="inlineStr">
+        <is>
+          <t>ConvergeTechnologySolutionsCorp</t>
+        </is>
+      </c>
+      <c r="C324" s="6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D324" s="7" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="E324" s="8" t="n">
+        <v>-0.08810000000000001</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B325" s="3" t="inlineStr">
+        <is>
+          <t>InvesqueInc</t>
+        </is>
+      </c>
+      <c r="C325" s="6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D325" s="7" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="E325" s="8" t="n">
+        <v>-0.08699999999999999</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B326" s="3" t="inlineStr">
+        <is>
+          <t>Kneat.comInc</t>
+        </is>
+      </c>
+      <c r="C326" s="6" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="D326" s="7" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="E326" s="8" t="n">
+        <v>-0.08359999999999999</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B327" s="3" t="inlineStr">
+        <is>
+          <t>StarcoreInternationalMinesLtd</t>
+        </is>
+      </c>
+      <c r="C327" s="6" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D327" s="7" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E327" s="8" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B328" s="3" t="inlineStr">
+        <is>
+          <t>AlmadenMineralsLtd.</t>
+        </is>
+      </c>
+      <c r="C328" s="6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D328" s="7" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="E328" s="8" t="n">
+        <v>-0.0789</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="B329" s="3" t="inlineStr">
+        <is>
+          <t>GDIIntegratedFacilityServicesInc</t>
+        </is>
+      </c>
+      <c r="C329" s="6" t="n">
+        <v>43.32</v>
+      </c>
+      <c r="D329" s="7" t="n">
+        <v>-3.71</v>
+      </c>
+      <c r="E329" s="8" t="n">
+        <v>-0.0789</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="B330" s="3" t="inlineStr">
+        <is>
+          <t>BitfarmsLtd</t>
+        </is>
+      </c>
+      <c r="C330" s="6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="D330" s="7" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E330" s="8" t="n">
+        <v>-0.0727</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="B331" s="3" t="inlineStr">
+        <is>
+          <t>SourceEnergyServicesLtd</t>
+        </is>
+      </c>
+      <c r="C331" s="6" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="D331" s="7" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="E331" s="8" t="n">
+        <v>-0.0721</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="B332" s="3" t="inlineStr">
+        <is>
+          <t>Hut8MiningCorp</t>
+        </is>
+      </c>
+      <c r="C332" s="6" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D332" s="7" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="E332" s="8" t="n">
+        <v>-0.0683</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="B333" s="3" t="inlineStr">
+        <is>
+          <t>EasternPlatinumLtd</t>
+        </is>
+      </c>
+      <c r="C333" s="6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D333" s="7" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="E333" s="8" t="n">
+        <v>-0.0667</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B334" s="3" t="inlineStr">
+        <is>
+          <t>ExcellonResourcesInc</t>
+        </is>
+      </c>
+      <c r="C334" s="6" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="D334" s="7" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="E334" s="8" t="n">
+        <v>-0.0625</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B335" s="3" t="inlineStr">
+        <is>
+          <t>TrilogyMetalsInc</t>
+        </is>
+      </c>
+      <c r="C335" s="6" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D335" s="7" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="E335" s="8" t="n">
+        <v>-0.0571</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="B336" s="3" t="inlineStr">
+        <is>
+          <t>ErdeneResourceDevelopmentCorp</t>
+        </is>
+      </c>
+      <c r="C336" s="6" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D336" s="7" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="E336" s="8" t="n">
+        <v>-0.0556</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="B337" s="3" t="inlineStr">
+        <is>
+          <t>XanaduMinesLtd</t>
+        </is>
+      </c>
+      <c r="C337" s="6" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="D337" s="7" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="E337" s="8" t="n">
+        <v>-0.0556</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="B338" s="3" t="inlineStr">
+        <is>
+          <t>TilrayBrandsInc</t>
+        </is>
+      </c>
+      <c r="C338" s="6" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="D338" s="7" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="E338" s="8" t="n">
+        <v>-0.0542</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="B339" s="3" t="inlineStr">
+        <is>
+          <t>AuroraCannabisInc</t>
+        </is>
+      </c>
+      <c r="C339" s="6" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D339" s="7" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="E339" s="8" t="n">
+        <v>-0.0533</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="B340" s="3" t="inlineStr">
+        <is>
+          <t>VerdeAgritechLtd</t>
+        </is>
+      </c>
+      <c r="C340" s="6" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="D340" s="7" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="E340" s="8" t="n">
+        <v>-0.0529</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B341" s="3" t="inlineStr">
+        <is>
+          <t>AuraMineralsInc</t>
+        </is>
+      </c>
+      <c r="C341" s="6" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="D341" s="7" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E341" s="8" t="n">
+        <v>-0.0512</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B342" s="3" t="inlineStr">
+        <is>
+          <t>NuminusWellnessInc</t>
+        </is>
+      </c>
+      <c r="C342" s="6" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D342" s="7" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E342" s="8" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="B343" s="3" t="inlineStr">
+        <is>
+          <t>McCoyGlobalInc</t>
+        </is>
+      </c>
+      <c r="C343" s="6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D343" s="7" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="E343" s="8" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B344" s="3" t="inlineStr">
+        <is>
+          <t>ECNCapitalCorp</t>
+        </is>
+      </c>
+      <c r="C344" s="6" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="D344" s="7" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="E344" s="8" t="n">
+        <v>-0.0496</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="B345" s="3" t="inlineStr">
+        <is>
+          <t>FinningInternationalInc</t>
+        </is>
+      </c>
+      <c r="C345" s="6" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="D345" s="7" t="n">
+        <v>-2.19</v>
+      </c>
+      <c r="E345" s="8" t="n">
+        <v>-0.0479</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="B346" s="3" t="inlineStr">
+        <is>
+          <t>DREAMUnlimitedCorp</t>
+        </is>
+      </c>
+      <c r="C346" s="6" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="D346" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E346" s="8" t="n">
+        <v>-0.0478</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B347" s="3" t="inlineStr">
+        <is>
+          <t>AnaergiaInc</t>
+        </is>
+      </c>
+      <c r="C347" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D347" s="7" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="E347" s="8" t="n">
+        <v>-0.0476</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="B348" s="3" t="inlineStr">
+        <is>
+          <t>AltiusMineralsCorporation</t>
+        </is>
+      </c>
+      <c r="C348" s="6" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="D348" s="7" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="E348" s="8" t="n">
+        <v>-0.0463</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="B349" s="3" t="inlineStr">
+        <is>
+          <t>SpectralMedicalInc</t>
+        </is>
+      </c>
+      <c r="C349" s="6" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="D349" s="7" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="E349" s="8" t="n">
+        <v>-0.0462</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="B350" s="3" t="inlineStr">
+        <is>
+          <t>ViemedHealthcareInc</t>
+        </is>
+      </c>
+      <c r="C350" s="6" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="D350" s="7" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="E350" s="8" t="n">
+        <v>-0.0455</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="B351" s="3" t="inlineStr">
+        <is>
+          <t>GoldMountainMiningCorp</t>
+        </is>
+      </c>
+      <c r="C351" s="6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D351" s="7" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="E351" s="8" t="n">
+        <v>-0.0455</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="B352" s="3" t="inlineStr">
+        <is>
+          <t>OrezoneGoldCorp</t>
+        </is>
+      </c>
+      <c r="C352" s="6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D352" s="7" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="E352" s="8" t="n">
+        <v>-0.045</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="B353" s="3" t="inlineStr">
+        <is>
+          <t>TaigaMotorsCorp</t>
+        </is>
+      </c>
+      <c r="C353" s="6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D353" s="7" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="E353" s="8" t="n">
+        <v>-0.045</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="B354" s="3" t="inlineStr">
+        <is>
+          <t>GibsonEnergyOrdShsSubscriptionReceipts</t>
+        </is>
+      </c>
+      <c r="C354" s="6" t="n">
+        <v>20.77</v>
+      </c>
+      <c r="D354" s="7" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="E354" s="8" t="n">
+        <v>-0.0446</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B355" s="3" t="inlineStr">
+        <is>
+          <t>NextSourceMaterialsInc</t>
+        </is>
+      </c>
+      <c r="C355" s="6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D355" s="7" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="E355" s="8" t="n">
+        <v>-0.0446</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="B356" s="3" t="inlineStr">
+        <is>
+          <t>JourneyEnergyInc</t>
+        </is>
+      </c>
+      <c r="C356" s="6" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="D356" s="7" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E356" s="8" t="n">
+        <v>-0.0444</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="B357" s="3" t="inlineStr">
+        <is>
+          <t>EvertzTechnologiesLtd</t>
+        </is>
+      </c>
+      <c r="C357" s="6" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="D357" s="7" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="E357" s="8" t="n">
+        <v>-0.04269999999999999</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B358" s="3" t="inlineStr">
+        <is>
+          <t>PyroGenesisCanadaInc</t>
+        </is>
+      </c>
+      <c r="C358" s="6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D358" s="7" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="E358" s="8" t="n">
+        <v>-0.0426</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="B359" s="3" t="inlineStr">
+        <is>
+          <t>WildBrainLtd</t>
+        </is>
+      </c>
+      <c r="C359" s="6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D359" s="7" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="E359" s="8" t="n">
+        <v>-0.0415</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="B360" s="3" t="inlineStr">
+        <is>
+          <t>CrescitaTherapeuticsInc</t>
+        </is>
+      </c>
+      <c r="C360" s="6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D360" s="7" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="E360" s="8" t="n">
+        <v>-0.0411</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="B361" s="3" t="inlineStr">
+        <is>
+          <t>ColliersInternationalGroupInc</t>
+        </is>
+      </c>
+      <c r="C361" s="6" t="n">
+        <v>143.89</v>
+      </c>
+      <c r="D361" s="7" t="n">
+        <v>-5.99</v>
+      </c>
+      <c r="E361" s="8" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="B362" s="3" t="inlineStr">
+        <is>
+          <t>RFCapitalGroupInc</t>
+        </is>
+      </c>
+      <c r="C362" s="6" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="D362" s="7" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="E362" s="8" t="n">
+        <v>-0.0398</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B363" s="3" t="inlineStr">
+        <is>
+          <t>EastSideGamesGroupInc</t>
+        </is>
+      </c>
+      <c r="C363" s="6" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D363" s="7" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="E363" s="8" t="n">
+        <v>-0.0392</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="3" t="n"/>
+      <c r="B364" s="3" t="n"/>
+      <c r="C364" s="3" t="n"/>
+      <c r="D364" s="3" t="n"/>
+      <c r="E364" s="3" t="n"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="3" t="n"/>
+      <c r="B365" s="3" t="n"/>
+      <c r="C365" s="3" t="n"/>
+      <c r="D365" s="3" t="n"/>
+      <c r="E365" s="3" t="n"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="9" t="n"/>
+      <c r="B366" s="9" t="n"/>
+      <c r="C366" s="9" t="n"/>
+      <c r="D366" s="9" t="n"/>
+      <c r="E366" s="9" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
